--- a/data/trans_orig/Q4506_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q4506_R-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>33992</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24330</v>
+        <v>22944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46556</v>
+        <v>46535</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0748482759907919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05357249431610406</v>
+        <v>0.05052060492484061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1025140300907429</v>
+        <v>0.1024663155762047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -763,19 +763,19 @@
         <v>43427</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31347</v>
+        <v>32462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56612</v>
+        <v>56784</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1014301414392964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07321574424674775</v>
+        <v>0.07581957579281663</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1322258835049469</v>
+        <v>0.1326292176154265</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -784,19 +784,19 @@
         <v>77419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61892</v>
+        <v>61159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95583</v>
+        <v>96738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0877474934482855</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07014907150718944</v>
+        <v>0.06931796743897754</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1083355046668172</v>
+        <v>0.1096443836410897</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>40974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30026</v>
+        <v>30725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54577</v>
+        <v>56249</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0902214901636237</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06611525192065518</v>
+        <v>0.06765544724220736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1201751002759681</v>
+        <v>0.1238564412724105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -834,19 +834,19 @@
         <v>63848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50528</v>
+        <v>50539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79028</v>
+        <v>79311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1491273551743419</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1180176577575967</v>
+        <v>0.1180424652471436</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1845841120400667</v>
+        <v>0.1852440741649716</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>102</v>
@@ -855,19 +855,19 @@
         <v>104822</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85988</v>
+        <v>85142</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>124692</v>
+        <v>124732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1188063749892207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09745952417270118</v>
+        <v>0.09650169502542853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1413280210034536</v>
+        <v>0.1413734561313552</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>59646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44364</v>
+        <v>46211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75659</v>
+        <v>75392</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1313368414657111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09768638847256952</v>
+        <v>0.1017532096008152</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.166595453938744</v>
+        <v>0.1660078408844367</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -905,19 +905,19 @@
         <v>101873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85315</v>
+        <v>85455</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>119799</v>
+        <v>121258</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2379409039534769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1992680628347329</v>
+        <v>0.1995946259218249</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2798100114366436</v>
+        <v>0.2832190994497384</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -926,19 +926,19 @@
         <v>161519</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138715</v>
+        <v>140215</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184669</v>
+        <v>187245</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1830679356037747</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.157222022312183</v>
+        <v>0.1589218571697217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2093059544044353</v>
+        <v>0.2122265914976478</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>68418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54839</v>
+        <v>53820</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84519</v>
+        <v>84334</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1506517170179624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1207523998029346</v>
+        <v>0.1185082960003874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1861054583182184</v>
+        <v>0.1856972339159991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -976,19 +976,19 @@
         <v>44896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32595</v>
+        <v>32238</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60020</v>
+        <v>57577</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1048616572744265</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07613001207543048</v>
+        <v>0.07529669011784294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1401869487971952</v>
+        <v>0.1344805436652116</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -997,19 +997,19 @@
         <v>113314</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91984</v>
+        <v>93654</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131080</v>
+        <v>133164</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1284314579030505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1042558959772027</v>
+        <v>0.1061488618665816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1485680765118762</v>
+        <v>0.1509304006603155</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>251116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>230302</v>
+        <v>232024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>271108</v>
+        <v>271427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.552941675361911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.507110275415547</v>
+        <v>0.5109020816888589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5969620219839405</v>
+        <v>0.5976650434812865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>168</v>
@@ -1047,19 +1047,19 @@
         <v>174100</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>154043</v>
+        <v>152083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>193711</v>
+        <v>193851</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4066399421584582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3597927333330698</v>
+        <v>0.3552147767312575</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4524450345746078</v>
+        <v>0.4527720881961674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>415</v>
@@ -1068,19 +1068,19 @@
         <v>425217</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>395449</v>
+        <v>395789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>453976</v>
+        <v>455275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4819467380556685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.448207180485472</v>
+        <v>0.4485925636031763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5145427492579695</v>
+        <v>0.5160150112143962</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>52444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39973</v>
+        <v>39099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66966</v>
+        <v>68461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07675760291226731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05850470624336167</v>
+        <v>0.05722600816976146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09801297378250531</v>
+        <v>0.1002005241522188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1193,19 +1193,19 @@
         <v>116651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97269</v>
+        <v>97538</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138313</v>
+        <v>138666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1911511791429314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1593899857210884</v>
+        <v>0.1598323115322419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.226647085805663</v>
+        <v>0.2272261965262098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -1214,19 +1214,19 @@
         <v>169095</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146647</v>
+        <v>145519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195040</v>
+        <v>197694</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1307272056362194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1133729637561225</v>
+        <v>0.1125006146649706</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1507856350414941</v>
+        <v>0.1528374922578485</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>75660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59061</v>
+        <v>59736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93362</v>
+        <v>94676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1107371404198891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08644349727354816</v>
+        <v>0.08743115761033975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1366467190382895</v>
+        <v>0.1385693899955793</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>100</v>
@@ -1264,19 +1264,19 @@
         <v>107289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88403</v>
+        <v>90442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127260</v>
+        <v>129146</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1758095677562933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1448623466591309</v>
+        <v>0.1482037268442113</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2085358764754103</v>
+        <v>0.2116267075302236</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -1285,19 +1285,19 @@
         <v>182949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160268</v>
+        <v>158456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>209385</v>
+        <v>209560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1414375797920046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1239033743974682</v>
+        <v>0.1225023657443075</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1618756317881546</v>
+        <v>0.1620108404162627</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>118551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>100040</v>
+        <v>99896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>142861</v>
+        <v>138262</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1735136772922956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1464198813171553</v>
+        <v>0.146210098213811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2090939219986687</v>
+        <v>0.2023635969105194</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>118</v>
@@ -1335,19 +1335,19 @@
         <v>127972</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108159</v>
+        <v>106031</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149679</v>
+        <v>148221</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2097031302754153</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1772357646961825</v>
+        <v>0.1737494243443852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2452724842027446</v>
+        <v>0.2428839240886932</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>233</v>
@@ -1356,19 +1356,19 @@
         <v>246524</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>218467</v>
+        <v>217871</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>276312</v>
+        <v>276135</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1905874542005182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1688972853347576</v>
+        <v>0.1684363970906011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2136169290486129</v>
+        <v>0.2134797498208134</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>98690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81246</v>
+        <v>81783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117491</v>
+        <v>117862</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.144443842805531</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1189126426915054</v>
+        <v>0.1196984542803569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.171961379185582</v>
+        <v>0.1725051380647328</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1406,19 +1406,19 @@
         <v>66123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51514</v>
+        <v>51310</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83904</v>
+        <v>82462</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1083535386674492</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08441338515605359</v>
+        <v>0.08407989926029383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1374905241460917</v>
+        <v>0.1351270981318792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -1427,19 +1427,19 @@
         <v>164813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142247</v>
+        <v>141449</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189670</v>
+        <v>189744</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1274168432073074</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1099715710772655</v>
+        <v>0.1093542100431317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1466340956356622</v>
+        <v>0.146691526833496</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>337894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310259</v>
+        <v>311083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367103</v>
+        <v>363627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4945477365700169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4541015654681437</v>
+        <v>0.4553064977599791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5372989066494762</v>
+        <v>0.5322118729127838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -1477,19 +1477,19 @@
         <v>192220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168912</v>
+        <v>168471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>215602</v>
+        <v>217575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3149825841579108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2767889433724363</v>
+        <v>0.276066447968482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3532983198068484</v>
+        <v>0.3565314592822154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>509</v>
@@ -1498,19 +1498,19 @@
         <v>530113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>494658</v>
+        <v>494412</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>565840</v>
+        <v>567381</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4098309171639504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.382419996561543</v>
+        <v>0.3822298095613734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4374509614933084</v>
+        <v>0.4386421834128807</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>54960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41761</v>
+        <v>41899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73500</v>
+        <v>71543</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08081479074936286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.061405655275962</v>
+        <v>0.06160850058750215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1080758526989314</v>
+        <v>0.1051977526764513</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -1623,19 +1623,19 @@
         <v>162151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139033</v>
+        <v>139362</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>185793</v>
+        <v>185089</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2287833571792408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1961665598599768</v>
+        <v>0.196630808419548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2621406837226767</v>
+        <v>0.261147120558081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -1644,19 +1644,19 @@
         <v>217111</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>189583</v>
+        <v>190314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>247000</v>
+        <v>247562</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1563265899769367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1365055907499263</v>
+        <v>0.1370321103712561</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1778472077571986</v>
+        <v>0.178252526392586</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>74060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59058</v>
+        <v>56718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92870</v>
+        <v>93187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.108898652557608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08684061612819614</v>
+        <v>0.08339991322577912</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1365581900203791</v>
+        <v>0.1370243265241078</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>137</v>
@@ -1694,19 +1694,19 @@
         <v>144995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>124197</v>
+        <v>125120</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168764</v>
+        <v>167281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2045785619646931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1752340083942859</v>
+        <v>0.1765361822850486</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2381141865419115</v>
+        <v>0.2360215230188665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -1715,19 +1715,19 @@
         <v>219055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192113</v>
+        <v>192529</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>252385</v>
+        <v>249245</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1577263345685989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1383273448747747</v>
+        <v>0.1386266662479127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1817251277824456</v>
+        <v>0.1794639639027563</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>114557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95781</v>
+        <v>97182</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136169</v>
+        <v>136501</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1684468686901463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1408386415471215</v>
+        <v>0.1428986671814523</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2002260171694439</v>
+        <v>0.2007135799743961</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -1765,19 +1765,19 @@
         <v>131926</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>112676</v>
+        <v>112192</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>154250</v>
+        <v>153656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1861390111768957</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1589779900241647</v>
+        <v>0.1582951566218756</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2176355592417509</v>
+        <v>0.2167984184159724</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>240</v>
@@ -1786,19 +1786,19 @@
         <v>246483</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>217306</v>
+        <v>220063</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>275636</v>
+        <v>276633</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1774755802847684</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1564668390581748</v>
+        <v>0.1584519819239599</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1984661698111629</v>
+        <v>0.199184552726881</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>88229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72502</v>
+        <v>70896</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107290</v>
+        <v>105785</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1297332529694629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1066082878552654</v>
+        <v>0.1042462241012409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1577620251596067</v>
+        <v>0.1555490158154994</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1836,19 +1836,19 @@
         <v>47288</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35461</v>
+        <v>34121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61901</v>
+        <v>62115</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06672005344070812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05003248943654419</v>
+        <v>0.04814191871538091</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08733851488369369</v>
+        <v>0.08763998625351524</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -1857,19 +1857,19 @@
         <v>135517</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115945</v>
+        <v>114005</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161455</v>
+        <v>159682</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09757615240204405</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08348415105239346</v>
+        <v>0.08208709303809442</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1162526466145886</v>
+        <v>0.1149761684623919</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>348272</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>320020</v>
+        <v>319580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>373050</v>
+        <v>373691</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.51210643503342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.470564128664061</v>
+        <v>0.4699167951271183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5485398934388855</v>
+        <v>0.5494819975513651</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>204</v>
@@ -1907,19 +1907,19 @@
         <v>222392</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>197616</v>
+        <v>197151</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250293</v>
+        <v>250232</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3137790162384623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2788228172688639</v>
+        <v>0.2781658869519075</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3531460599132325</v>
+        <v>0.3530603080382878</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>534</v>
@@ -1928,19 +1928,19 @@
         <v>570664</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>532562</v>
+        <v>533342</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>609685</v>
+        <v>604587</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.410895342767652</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3834609708959102</v>
+        <v>0.3840225288425286</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4389916015573986</v>
+        <v>0.4353212393705325</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>48563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35467</v>
+        <v>36087</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63892</v>
+        <v>65020</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07901285494994935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0577058975240446</v>
+        <v>0.0587141590433732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1039533707382856</v>
+        <v>0.1057892264874256</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -2053,19 +2053,19 @@
         <v>146640</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125880</v>
+        <v>125603</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171256</v>
+        <v>169022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2384201266407284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2046661405190133</v>
+        <v>0.2042165926466046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2784423558745571</v>
+        <v>0.2748098223570358</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>172</v>
@@ -2074,19 +2074,19 @@
         <v>195203</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168632</v>
+        <v>166768</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223828</v>
+        <v>222855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1587445338574965</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1371364098981346</v>
+        <v>0.135620778462539</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1820235608549045</v>
+        <v>0.1812321597078469</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>54060</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40089</v>
+        <v>39037</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72042</v>
+        <v>70116</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08795750744623208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06522589313738485</v>
+        <v>0.06351516016734786</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1172142450616234</v>
+        <v>0.114080489619781</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -2124,19 +2124,19 @@
         <v>69623</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53937</v>
+        <v>54985</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87363</v>
+        <v>87941</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1131994194506953</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08769487150608259</v>
+        <v>0.08939859335956042</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1420419382984393</v>
+        <v>0.1429820430754049</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>108</v>
@@ -2145,19 +2145,19 @@
         <v>123683</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>102217</v>
+        <v>103672</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>146596</v>
+        <v>147001</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1005829040269882</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08312610135112075</v>
+        <v>0.08430874417887307</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1192164083204198</v>
+        <v>0.1195452411887571</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>101030</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82542</v>
+        <v>81876</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122282</v>
+        <v>119097</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1643780127636063</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1342980643572346</v>
+        <v>0.1332146181779879</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1989557406579532</v>
+        <v>0.1937739197992599</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>101</v>
@@ -2195,19 +2195,19 @@
         <v>116942</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>96681</v>
+        <v>96303</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>136977</v>
+        <v>138050</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1901337934164927</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.157191993401702</v>
+        <v>0.1565774506025675</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2227085554161703</v>
+        <v>0.2244530552741398</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>191</v>
@@ -2216,19 +2216,19 @@
         <v>217971</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>191806</v>
+        <v>190104</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>247287</v>
+        <v>247610</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1772604340687815</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1559823312427271</v>
+        <v>0.1545979192921262</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2011009683247469</v>
+        <v>0.2013637596198175</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>76008</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60142</v>
+        <v>59500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96021</v>
+        <v>94710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1236677333866218</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09785257212408485</v>
+        <v>0.09680848258330256</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1562289980314871</v>
+        <v>0.1540954692757809</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2266,19 +2266,19 @@
         <v>54137</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39369</v>
+        <v>40615</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70311</v>
+        <v>71124</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08802116620673395</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06400934253928063</v>
+        <v>0.06603493122276846</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.114317176858785</v>
+        <v>0.115639636458987</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -2287,19 +2287,19 @@
         <v>130146</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108552</v>
+        <v>108065</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>155148</v>
+        <v>154011</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1058381788224084</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08827737076174412</v>
+        <v>0.087881819939073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1261706177584901</v>
+        <v>0.1252465734707475</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>334956</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>305759</v>
+        <v>309678</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>360976</v>
+        <v>361642</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5449838914535906</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4974789535515911</v>
+        <v>0.5038549553586505</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5873182632387486</v>
+        <v>0.5884021649012249</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>199</v>
@@ -2337,19 +2337,19 @@
         <v>227707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>203554</v>
+        <v>202733</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>256129</v>
+        <v>255801</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3702254942853498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.330955592507906</v>
+        <v>0.329620329949959</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4164359821623292</v>
+        <v>0.415903189090242</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>499</v>
@@ -2358,19 +2358,19 @@
         <v>562663</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>526786</v>
+        <v>525638</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>600361</v>
+        <v>596028</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4575739492243253</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4283977428412286</v>
+        <v>0.4274639004682985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4882313043463545</v>
+        <v>0.4847074510555608</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>37999</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26474</v>
+        <v>27717</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52025</v>
+        <v>50821</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08848763750824384</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06164839202419489</v>
+        <v>0.06454431068780664</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1211482160677734</v>
+        <v>0.1183456214886646</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>83</v>
@@ -2483,19 +2483,19 @@
         <v>92438</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75451</v>
+        <v>76352</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>112014</v>
+        <v>110780</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2064267216695498</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1684936517609423</v>
+        <v>0.1705051237579461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2501432565316363</v>
+        <v>0.2473878619876368</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>118</v>
@@ -2504,19 +2504,19 @@
         <v>130437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>110128</v>
+        <v>109996</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>155022</v>
+        <v>153121</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1486921134861415</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1255402048563199</v>
+        <v>0.1253904298504997</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1767174281725377</v>
+        <v>0.1745505353019481</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>34171</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24205</v>
+        <v>24494</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49121</v>
+        <v>47950</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07957288534836141</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05636498064837416</v>
+        <v>0.05703803987828421</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1143858647745595</v>
+        <v>0.1116610030098975</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>56</v>
@@ -2554,19 +2554,19 @@
         <v>61908</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>47282</v>
+        <v>46878</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78932</v>
+        <v>77128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1382495856882054</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1055864037966166</v>
+        <v>0.1046853040194957</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1762671001969135</v>
+        <v>0.1722373560976586</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>87</v>
@@ -2575,19 +2575,19 @@
         <v>96079</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>76977</v>
+        <v>79965</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>115683</v>
+        <v>116829</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1095256361365639</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08775073642875199</v>
+        <v>0.09115687557287289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.131873573343996</v>
+        <v>0.133179058611967</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>52198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38886</v>
+        <v>39338</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67046</v>
+        <v>66996</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1215528496429231</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09055355902880319</v>
+        <v>0.09160532074729544</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1561274895295431</v>
+        <v>0.1560127369616768</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>78</v>
@@ -2625,19 +2625,19 @@
         <v>81790</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65709</v>
+        <v>66542</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99297</v>
+        <v>100389</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1826477064062808</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1467374136410055</v>
+        <v>0.1485977514688758</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2217444187902249</v>
+        <v>0.2241821545823451</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>126</v>
@@ -2646,19 +2646,19 @@
         <v>133988</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>113540</v>
+        <v>113881</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>157055</v>
+        <v>157219</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1527399990305849</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1294306004857709</v>
+        <v>0.1298187986624986</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.179034811067616</v>
+        <v>0.1792222766187916</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>58493</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44755</v>
+        <v>45000</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>74448</v>
+        <v>73740</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1362111409878519</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1042193432850133</v>
+        <v>0.1047908712481106</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1733639446798768</v>
+        <v>0.1717172822128756</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2696,19 +2696,19 @@
         <v>29380</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20230</v>
+        <v>20201</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>41136</v>
+        <v>41124</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06560917885890251</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04517634271526089</v>
+        <v>0.04511078422402368</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09186241435769672</v>
+        <v>0.0918360373010931</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>82</v>
@@ -2717,19 +2717,19 @@
         <v>87873</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>71504</v>
+        <v>71761</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>109042</v>
+        <v>106336</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.100170890521168</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08151074908509527</v>
+        <v>0.08180470829290237</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1243028365800547</v>
+        <v>0.1212176969260221</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>246568</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>224044</v>
+        <v>226735</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>268794</v>
+        <v>268003</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5741754865126197</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5217254890244835</v>
+        <v>0.5279919326946413</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6259324824365693</v>
+        <v>0.6240921157104666</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>161</v>
@@ -2767,19 +2767,19 @@
         <v>182285</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>160401</v>
+        <v>162691</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>202873</v>
+        <v>205012</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4070668073770615</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3581985291131589</v>
+        <v>0.3633109257885974</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4530429765823731</v>
+        <v>0.4578193460488144</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>386</v>
@@ -2788,19 +2788,19 @@
         <v>428852</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>396583</v>
+        <v>395316</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>459378</v>
+        <v>456772</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4888713608255416</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4520863054850709</v>
+        <v>0.4506421231726897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5236691194509864</v>
+        <v>0.5206986705819642</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>28867</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19568</v>
+        <v>18965</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42129</v>
+        <v>40622</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09318440792082816</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06316769231232819</v>
+        <v>0.06121933394468099</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1359940298999434</v>
+        <v>0.1311301851196174</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>75</v>
@@ -2913,19 +2913,19 @@
         <v>79679</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>66091</v>
+        <v>63232</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>97618</v>
+        <v>95117</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2250842555742158</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.186699664886264</v>
+        <v>0.1786243791589762</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.275760057474506</v>
+        <v>0.2686955582097799</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>100</v>
@@ -2934,19 +2934,19 @@
         <v>108546</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>91002</v>
+        <v>89622</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>128959</v>
+        <v>129613</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1635267878682116</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1370955156993228</v>
+        <v>0.1350169194937618</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1942798879415257</v>
+        <v>0.1952647919667643</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>22272</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14979</v>
+        <v>14483</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>32714</v>
+        <v>32493</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0718962616404392</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0483513643672959</v>
+        <v>0.04675054664236641</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1056012411712945</v>
+        <v>0.1048890222257949</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>43</v>
@@ -2984,19 +2984,19 @@
         <v>43928</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>32882</v>
+        <v>32892</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>57227</v>
+        <v>56707</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1240919687234117</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09288752979357408</v>
+        <v>0.09291693916825033</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1616602789849731</v>
+        <v>0.160189924315853</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>65</v>
@@ -3005,19 +3005,19 @@
         <v>66201</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>51650</v>
+        <v>53705</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>81751</v>
+        <v>84558</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0997323078874455</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07781111849065206</v>
+        <v>0.08090813988938705</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1231598115615344</v>
+        <v>0.127388221794461</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>43002</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29950</v>
+        <v>31534</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57382</v>
+        <v>58451</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1388125163391458</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09668046708652007</v>
+        <v>0.1017915403899809</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1852322898666115</v>
+        <v>0.1886807856236852</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>48</v>
@@ -3055,19 +3055,19 @@
         <v>50173</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>38690</v>
+        <v>37866</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65590</v>
+        <v>64163</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1417330470574965</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1092937891080475</v>
+        <v>0.1069669782509067</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1852840982946082</v>
+        <v>0.1812548019342783</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>86</v>
@@ -3076,19 +3076,19 @@
         <v>93175</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>75071</v>
+        <v>75327</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>110180</v>
+        <v>111608</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1403700396046623</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1130959564927615</v>
+        <v>0.1134820207686857</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1659884491367629</v>
+        <v>0.1681387905194619</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>26997</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>18034</v>
+        <v>17674</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38944</v>
+        <v>39655</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08714754234430892</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05821452292896453</v>
+        <v>0.05705116382648782</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1257139241410731</v>
+        <v>0.1280084035980902</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>38</v>
@@ -3126,19 +3126,19 @@
         <v>38570</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28174</v>
+        <v>27612</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>50991</v>
+        <v>50553</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1089547654038191</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07958951378233832</v>
+        <v>0.07800172721421086</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1440443920445691</v>
+        <v>0.1428070448886632</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>62</v>
@@ -3147,19 +3147,19 @@
         <v>65567</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>52529</v>
+        <v>51373</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>83643</v>
+        <v>82224</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09877736601234259</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07913591542040356</v>
+        <v>0.07739396511661681</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1260101210176736</v>
+        <v>0.123871659988204</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>188647</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>167932</v>
+        <v>170930</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>205029</v>
+        <v>207517</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6089592717552779</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5420899874638584</v>
+        <v>0.5517670436582909</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6618402235833034</v>
+        <v>0.6698713731560756</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>140</v>
@@ -3197,19 +3197,19 @@
         <v>141647</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>122791</v>
+        <v>123832</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>158934</v>
+        <v>160026</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4001359632410569</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3468698481149056</v>
+        <v>0.3498104730668717</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4489721561163251</v>
+        <v>0.452056451268192</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>313</v>
@@ -3218,19 +3218,19 @@
         <v>330294</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>305656</v>
+        <v>304778</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>356132</v>
+        <v>357251</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.497593498627338</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4604757611137924</v>
+        <v>0.4591540505445745</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5365197581986295</v>
+        <v>0.5382051923375956</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>10622</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5275</v>
+        <v>5332</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19165</v>
+        <v>18869</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04267822820348284</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02119320444181486</v>
+        <v>0.02142247708095251</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07700463775341493</v>
+        <v>0.07581329265715543</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>60</v>
@@ -3343,19 +3343,19 @@
         <v>66689</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>51639</v>
+        <v>51988</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>83458</v>
+        <v>82748</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1728478296083549</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1338393690475305</v>
+        <v>0.1347454978962215</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2163101389071078</v>
+        <v>0.2144703863775844</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>70</v>
@@ -3364,19 +3364,19 @@
         <v>77311</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>60331</v>
+        <v>63337</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>95869</v>
+        <v>96032</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.121805155828572</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09505220261132094</v>
+        <v>0.09978814462141873</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1510428060897535</v>
+        <v>0.151301140615463</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>17014</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9336</v>
+        <v>10379</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>26566</v>
+        <v>26255</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06836076106810808</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03751180134016677</v>
+        <v>0.04170192958803326</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1067411216737052</v>
+        <v>0.1054922838097608</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>26</v>
@@ -3414,19 +3414,19 @@
         <v>28360</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19418</v>
+        <v>18791</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>40029</v>
+        <v>41279</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07350484754322245</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05032792486287243</v>
+        <v>0.04870328858493605</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1037503806944812</v>
+        <v>0.1069888179524031</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>41</v>
@@ -3435,19 +3435,19 @@
         <v>45374</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>32592</v>
+        <v>33033</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>59829</v>
+        <v>60388</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0714877258419154</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05134876717884568</v>
+        <v>0.0520441141122664</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09426140806324206</v>
+        <v>0.09514260020373508</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>27498</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18080</v>
+        <v>18425</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>38728</v>
+        <v>40722</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.11048555698052</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07264236654209155</v>
+        <v>0.07403010798019628</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1556066447171909</v>
+        <v>0.1636159957155345</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>41</v>
@@ -3485,19 +3485,19 @@
         <v>45016</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>33932</v>
+        <v>33029</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>59729</v>
+        <v>58655</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1166738105872989</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08794573532918565</v>
+        <v>0.08560585391952125</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1548075681096651</v>
+        <v>0.1520239873584169</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>66</v>
@@ -3506,19 +3506,19 @@
         <v>72514</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>58292</v>
+        <v>57067</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>92926</v>
+        <v>89687</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1142472455006092</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09184090815178299</v>
+        <v>0.08990980784652093</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1464062411251739</v>
+        <v>0.1413034876422286</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>23624</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>15820</v>
+        <v>15718</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>35503</v>
+        <v>35457</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.09491817535850521</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06356484007724997</v>
+        <v>0.06315291108331754</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1426487733665776</v>
+        <v>0.1424631616763375</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>25</v>
@@ -3556,19 +3556,19 @@
         <v>27140</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>18212</v>
+        <v>18394</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>38968</v>
+        <v>38677</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07034209858114567</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04720323647729796</v>
+        <v>0.04767365986151641</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1010000691587157</v>
+        <v>0.1002460925902953</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>46</v>
@@ -3577,19 +3577,19 @@
         <v>50764</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>37056</v>
+        <v>38159</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>66556</v>
+        <v>65408</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07997897736232867</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05838233609575069</v>
+        <v>0.06012033523307236</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1048603647595417</v>
+        <v>0.1030518646457408</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>170127</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>154000</v>
+        <v>153401</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>185797</v>
+        <v>184375</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6835572783893838</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6187581294765306</v>
+        <v>0.6163521238109858</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7465176053716941</v>
+        <v>0.7408041206410393</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>196</v>
@@ -3627,19 +3627,19 @@
         <v>218621</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>198589</v>
+        <v>199487</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>238896</v>
+        <v>240551</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.566631413679978</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5147121447774996</v>
+        <v>0.517039923744566</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6191814551055942</v>
+        <v>0.6234710443228682</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>346</v>
@@ -3648,19 +3648,19 @@
         <v>388748</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>359966</v>
+        <v>362910</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>412484</v>
+        <v>411490</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6124808954665748</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5671329979669412</v>
+        <v>0.5717720899365417</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6498774676864817</v>
+        <v>0.6483102792828114</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>267447</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>236416</v>
+        <v>236254</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>301404</v>
+        <v>300819</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.07819681385531869</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06912393288638127</v>
+        <v>0.06907656034912926</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08812528561497145</v>
+        <v>0.08795419998977255</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>653</v>
@@ -3773,19 +3773,19 @@
         <v>707674</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>659162</v>
+        <v>657980</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>759599</v>
+        <v>756563</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1993549283200847</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1856889096408006</v>
+        <v>0.1853557427448514</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2139822808964885</v>
+        <v>0.213127121408257</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>899</v>
@@ -3794,19 +3794,19 @@
         <v>975122</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>915587</v>
+        <v>916541</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1039672</v>
+        <v>1036609</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1399026425428703</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.131361163963984</v>
+        <v>0.1314979075919392</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1491638072431689</v>
+        <v>0.1487243792031006</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>318211</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>286452</v>
+        <v>284696</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>357704</v>
+        <v>356992</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09303916823466958</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08375352448955198</v>
+        <v>0.08324011873540399</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1045863026678633</v>
+        <v>0.1043781449104083</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>485</v>
@@ -3844,19 +3844,19 @@
         <v>519952</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>478025</v>
+        <v>474438</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>566193</v>
+        <v>561933</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1464726126043309</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1346617208013829</v>
+        <v>0.1336513281763831</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.159499161201874</v>
+        <v>0.1582990717311003</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>780</v>
@@ -3865,19 +3865,19 @@
         <v>838162</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>780112</v>
+        <v>784498</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>891924</v>
+        <v>899760</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1202528218890353</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1119242620225471</v>
+        <v>0.1125535305106811</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1279661133016589</v>
+        <v>0.1290903325710878</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>516482</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>474114</v>
+        <v>477155</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>559746</v>
+        <v>560829</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1510103443258108</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.138622457754666</v>
+        <v>0.1395116511618985</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1636597106959627</v>
+        <v>0.1639764941459559</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>616</v>
@@ -3915,19 +3915,19 @@
         <v>655692</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>612150</v>
+        <v>610140</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>708305</v>
+        <v>701964</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1847111616357152</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1724453314300795</v>
+        <v>0.1718791227443888</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.199532508748657</v>
+        <v>0.1977462214426902</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1101</v>
@@ -3936,19 +3936,19 @@
         <v>1172174</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1106589</v>
+        <v>1112652</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1240436</v>
+        <v>1236766</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.168174170857299</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1587645482943399</v>
+        <v>0.1596343515963445</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1779677904933343</v>
+        <v>0.1774413383934057</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>440458</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>400365</v>
+        <v>401474</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>482694</v>
+        <v>481361</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1287822103015457</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.117059790692689</v>
+        <v>0.117384035757314</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1411313189839741</v>
+        <v>0.1407414539820862</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>288</v>
@@ -3986,19 +3986,19 @@
         <v>307534</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>272959</v>
+        <v>275918</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>342371</v>
+        <v>344224</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08663353635588064</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0768936837838672</v>
+        <v>0.07772721545934781</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09644727267218661</v>
+        <v>0.09696940368688381</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>711</v>
@@ -4007,19 +4007,19 @@
         <v>747992</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>696428</v>
+        <v>696212</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>805654</v>
+        <v>806794</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1073158903163909</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09991796175134768</v>
+        <v>0.09988688316194326</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1155887989082118</v>
+        <v>0.1157523995327458</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>1877581</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1816858</v>
+        <v>1819155</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1940067</v>
+        <v>1939978</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5489714632826552</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5312171279978904</v>
+        <v>0.5318887423598294</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5672414697304912</v>
+        <v>0.5672154318981091</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1249</v>
@@ -4057,19 +4057,19 @@
         <v>1358970</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1302808</v>
+        <v>1301027</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1422432</v>
+        <v>1426594</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3828277610839885</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3670066395065679</v>
+        <v>0.3665050374866791</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4007053505447729</v>
+        <v>0.4018776068818741</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3002</v>
@@ -4078,19 +4078,19 @@
         <v>3236551</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>3149400</v>
+        <v>3142449</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>3315066</v>
+        <v>3322429</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4643544743944045</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4518507193947465</v>
+        <v>0.4508535214231973</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4756191949796258</v>
+        <v>0.4766754983365437</v>
       </c>
     </row>
     <row r="51">
@@ -4425,19 +4425,19 @@
         <v>36660</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25014</v>
+        <v>25693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48920</v>
+        <v>48372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0880554047378551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06008147121532267</v>
+        <v>0.06171390308896438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1175041364493851</v>
+        <v>0.1161873387699645</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -4446,19 +4446,19 @@
         <v>73070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58843</v>
+        <v>59344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88634</v>
+        <v>89456</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1846351994796344</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1486852554420944</v>
+        <v>0.1499509861693593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2239629015430662</v>
+        <v>0.2260393943568559</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -4467,19 +4467,19 @@
         <v>109730</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91588</v>
+        <v>90367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129731</v>
+        <v>128823</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1351218021261255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1127807806985726</v>
+        <v>0.1112777790389391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.159750498608955</v>
+        <v>0.1586328594672304</v>
       </c>
     </row>
     <row r="5">
@@ -4496,19 +4496,19 @@
         <v>88838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72003</v>
+        <v>72678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105353</v>
+        <v>107437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2133837068121994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1729474508939506</v>
+        <v>0.1745679412815517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2530517824179498</v>
+        <v>0.2580575020378517</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -4517,19 +4517,19 @@
         <v>121369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102520</v>
+        <v>102764</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140762</v>
+        <v>138257</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3066765946037824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2590492384936478</v>
+        <v>0.2596662953232355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3556805864694597</v>
+        <v>0.3493502780353195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -4538,19 +4538,19 @@
         <v>210207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186647</v>
+        <v>185244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>235159</v>
+        <v>236020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2588482901863706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.229836842986669</v>
+        <v>0.2281094589027493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2895744150721051</v>
+        <v>0.2906340109257686</v>
       </c>
     </row>
     <row r="6">
@@ -4567,19 +4567,19 @@
         <v>78297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62380</v>
+        <v>62902</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95501</v>
+        <v>95803</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1880636038586858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1498322058292958</v>
+        <v>0.1510869426461819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2293874109884457</v>
+        <v>0.230112351971301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>81</v>
@@ -4588,19 +4588,19 @@
         <v>77392</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62325</v>
+        <v>62167</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92341</v>
+        <v>93576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1955560084988081</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1574848372378669</v>
+        <v>0.1570845370581148</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2333294616608721</v>
+        <v>0.236449381670039</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>156</v>
@@ -4609,19 +4609,19 @@
         <v>155689</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>135561</v>
+        <v>135715</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>181979</v>
+        <v>179418</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.191714890291097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1669290210708401</v>
+        <v>0.1671188572530229</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2240883222527032</v>
+        <v>0.2209349672227432</v>
       </c>
     </row>
     <row r="7">
@@ -4638,19 +4638,19 @@
         <v>55281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43025</v>
+        <v>41806</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71120</v>
+        <v>70745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1327823931201865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1033435092835982</v>
+        <v>0.1004151707158032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1708263393188793</v>
+        <v>0.1699244403598778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4659,19 +4659,19 @@
         <v>37371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27316</v>
+        <v>27359</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49824</v>
+        <v>51687</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09442886964664143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06902205219283941</v>
+        <v>0.06913066354684658</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1258960955140611</v>
+        <v>0.1306040645507624</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -4680,19 +4680,19 @@
         <v>92652</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75463</v>
+        <v>75302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110412</v>
+        <v>112177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1140915045976689</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09292538790753058</v>
+        <v>0.09272703904546903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1359611008149657</v>
+        <v>0.1381343809271213</v>
       </c>
     </row>
     <row r="8">
@@ -4709,19 +4709,19 @@
         <v>157254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>136765</v>
+        <v>138497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177429</v>
+        <v>179182</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3777148914710732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3285005375836857</v>
+        <v>0.3326606535188573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4261730337683075</v>
+        <v>0.4303848894434277</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -4730,19 +4730,19 @@
         <v>86553</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69673</v>
+        <v>71449</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103076</v>
+        <v>103888</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2187033277711337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1760519714265867</v>
+        <v>0.1805377140853235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2604553184688189</v>
+        <v>0.2625064783159396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -4751,19 +4751,19 @@
         <v>243807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>220059</v>
+        <v>217408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>270785</v>
+        <v>268677</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3002235127987381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2709798005987863</v>
+        <v>0.2677162851879618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3334446022256564</v>
+        <v>0.3308483200987192</v>
       </c>
     </row>
     <row r="9">
@@ -4855,19 +4855,19 @@
         <v>57809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44133</v>
+        <v>44281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74935</v>
+        <v>73900</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09857098645031623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07525139446061108</v>
+        <v>0.07550481160908255</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.127772539473936</v>
+        <v>0.1260081995413123</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -4876,19 +4876,19 @@
         <v>112267</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94742</v>
+        <v>94776</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131642</v>
+        <v>131679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1995643085704033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1684132099799599</v>
+        <v>0.1684726904338084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2340049384842846</v>
+        <v>0.2340721692243144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -4897,19 +4897,19 @@
         <v>170076</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146561</v>
+        <v>148836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195927</v>
+        <v>196810</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1480169017624288</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1275524680814876</v>
+        <v>0.1295323858419551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1705157305877405</v>
+        <v>0.1712841128177559</v>
       </c>
     </row>
     <row r="11">
@@ -4926,19 +4926,19 @@
         <v>139216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118459</v>
+        <v>118993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160265</v>
+        <v>159427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.237379580070549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2019872590609995</v>
+        <v>0.202896700087004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2732711654773326</v>
+        <v>0.2718427098712717</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>183</v>
@@ -4947,19 +4947,19 @@
         <v>179246</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159679</v>
+        <v>157129</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>202724</v>
+        <v>200820</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3186263271314727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2838436654253366</v>
+        <v>0.2793103087935012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.360360031012008</v>
+        <v>0.3569763030707882</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>319</v>
@@ -4968,19 +4968,19 @@
         <v>318462</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>289049</v>
+        <v>290970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>348700</v>
+        <v>350309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.277157653414668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2515596672111448</v>
+        <v>0.2532312085506352</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3034740528036988</v>
+        <v>0.3048739174652327</v>
       </c>
     </row>
     <row r="12">
@@ -4997,19 +4997,19 @@
         <v>109712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92772</v>
+        <v>91918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131236</v>
+        <v>129477</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1870728865274099</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1581871874983681</v>
+        <v>0.1567317451203556</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2237736614937962</v>
+        <v>0.2207732033972578</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -5018,19 +5018,19 @@
         <v>111645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>94195</v>
+        <v>94841</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>130333</v>
+        <v>131010</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.198459136313175</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1674408400415444</v>
+        <v>0.1685889430704074</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2316779483461711</v>
+        <v>0.232882428741606</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>221</v>
@@ -5039,19 +5039,19 @@
         <v>221357</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>196016</v>
+        <v>195273</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>246850</v>
+        <v>247242</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1926475476120315</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1705929686594249</v>
+        <v>0.1699465633043343</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.214833908383756</v>
+        <v>0.2151751845074512</v>
       </c>
     </row>
     <row r="13">
@@ -5068,19 +5068,19 @@
         <v>78776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62542</v>
+        <v>62183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96669</v>
+        <v>96253</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1343220629560493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1066409320435751</v>
+        <v>0.1060298137402929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1648322291298055</v>
+        <v>0.1641234686269525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5089,19 +5089,19 @@
         <v>42693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31855</v>
+        <v>31609</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56471</v>
+        <v>56316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07589067919134851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05662494081445421</v>
+        <v>0.05618726602849745</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1003825197436532</v>
+        <v>0.1001073721460894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -5110,19 +5110,19 @@
         <v>121469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99360</v>
+        <v>102516</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141613</v>
+        <v>144440</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1057142976845641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08647277313594243</v>
+        <v>0.0892194185244152</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1232456115914714</v>
+        <v>0.125706590787211</v>
       </c>
     </row>
     <row r="14">
@@ -5139,19 +5139,19 @@
         <v>200956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176764</v>
+        <v>177637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>223582</v>
+        <v>224955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3426544839956756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3014037269957914</v>
+        <v>0.3028916265436435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3812334996833289</v>
+        <v>0.3835753973513228</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -5160,19 +5160,19 @@
         <v>116708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>99039</v>
+        <v>100015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135790</v>
+        <v>135711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2074595487936006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1760506511495972</v>
+        <v>0.1777866097659501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2413785280231326</v>
+        <v>0.2412395088600252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>313</v>
@@ -5181,19 +5181,19 @@
         <v>317664</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>289938</v>
+        <v>290530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>350630</v>
+        <v>350030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2764635995263077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2523336927110839</v>
+        <v>0.2528483774961104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3051539844947114</v>
+        <v>0.3046317879941668</v>
       </c>
     </row>
     <row r="15">
@@ -5285,19 +5285,19 @@
         <v>103911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85723</v>
+        <v>85179</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124440</v>
+        <v>125702</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1567248499636905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1292923015498247</v>
+        <v>0.128472018946462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1876881183436737</v>
+        <v>0.1895917205917124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>170</v>
@@ -5306,19 +5306,19 @@
         <v>170334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147102</v>
+        <v>149264</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194444</v>
+        <v>193933</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2585081299506155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2232498823892939</v>
+        <v>0.2265300750764261</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2950981322515224</v>
+        <v>0.2943227013075157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>264</v>
@@ -5327,19 +5327,19 @@
         <v>274245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>245173</v>
+        <v>246378</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304180</v>
+        <v>303795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2074585550651053</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1854662428063911</v>
+        <v>0.1863780870314526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2301033856556891</v>
+        <v>0.229811845366853</v>
       </c>
     </row>
     <row r="17">
@@ -5356,19 +5356,19 @@
         <v>151685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130737</v>
+        <v>128492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174037</v>
+        <v>172948</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2287808728430018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1971855798199719</v>
+        <v>0.1937996357246033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2624937608999874</v>
+        <v>0.2608509721456343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -5377,19 +5377,19 @@
         <v>186441</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>165506</v>
+        <v>163528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212536</v>
+        <v>211972</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2829525927197684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2511796890608753</v>
+        <v>0.2481788471830682</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3225552662348654</v>
+        <v>0.3216989305443575</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>331</v>
@@ -5398,19 +5398,19 @@
         <v>338126</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>307367</v>
+        <v>309367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>371214</v>
+        <v>370154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2557826757070613</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2325142334398239</v>
+        <v>0.2340270048253109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2808124681963735</v>
+        <v>0.2800106345473226</v>
       </c>
     </row>
     <row r="18">
@@ -5427,19 +5427,19 @@
         <v>112664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>94485</v>
+        <v>93802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133513</v>
+        <v>131214</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1699272945461076</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1425086892652241</v>
+        <v>0.1414785582411835</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2013732231748185</v>
+        <v>0.1979054486121951</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -5448,19 +5448,19 @@
         <v>125242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105844</v>
+        <v>105108</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>146218</v>
+        <v>143979</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1900739103049227</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1606336948926639</v>
+        <v>0.1595165134292405</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2219082331922552</v>
+        <v>0.2185096088626774</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>237</v>
@@ -5469,19 +5469,19 @@
         <v>237907</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>211145</v>
+        <v>212502</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>267632</v>
+        <v>269227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1799693413619553</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1597247006574549</v>
+        <v>0.1607517421193596</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2024555291586265</v>
+        <v>0.2036626494570458</v>
       </c>
     </row>
     <row r="19">
@@ -5498,19 +5498,19 @@
         <v>88229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72048</v>
+        <v>70706</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108474</v>
+        <v>106720</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1330721731140096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1086676003961624</v>
+        <v>0.1066426779214988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1636066956813998</v>
+        <v>0.160961354133188</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -5519,19 +5519,19 @@
         <v>48192</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36361</v>
+        <v>35804</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63149</v>
+        <v>62776</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07313905948016652</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05518299037181377</v>
+        <v>0.05433790992918754</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09583754801159541</v>
+        <v>0.09527217598066925</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -5540,19 +5540,19 @@
         <v>136421</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113483</v>
+        <v>114946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159489</v>
+        <v>160335</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1031986132002441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08584685344333341</v>
+        <v>0.08695352967734021</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1206489229652346</v>
+        <v>0.1212887117396714</v>
       </c>
     </row>
     <row r="20">
@@ -5569,19 +5569,19 @@
         <v>206526</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181432</v>
+        <v>185282</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231808</v>
+        <v>231764</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3114948095331904</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2736462576242366</v>
+        <v>0.2794530165482399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3496269351792755</v>
+        <v>0.3495610042570292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -5590,19 +5590,19 @@
         <v>128703</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109592</v>
+        <v>110389</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148016</v>
+        <v>150793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1953263075445269</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1663219961449721</v>
+        <v>0.1675324927193888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2246372851469602</v>
+        <v>0.2288510593503245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>330</v>
@@ -5611,19 +5611,19 @@
         <v>335229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>302709</v>
+        <v>307348</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>365625</v>
+        <v>367706</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.253590814665634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2289904390783884</v>
+        <v>0.2324996726162436</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2765847296280334</v>
+        <v>0.2781591240229329</v>
       </c>
     </row>
     <row r="21">
@@ -5715,19 +5715,19 @@
         <v>65481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51268</v>
+        <v>50984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83569</v>
+        <v>81614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1013562709810211</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07935567767856955</v>
+        <v>0.07891624442770323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.129353557573138</v>
+        <v>0.1263282398629833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -5736,19 +5736,19 @@
         <v>147641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125959</v>
+        <v>123781</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169421</v>
+        <v>169287</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2278537788003561</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1943914592220427</v>
+        <v>0.1910302684154704</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2614663129451619</v>
+        <v>0.2612600898676291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>195</v>
@@ -5757,19 +5757,19 @@
         <v>213122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>186770</v>
+        <v>185659</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>242359</v>
+        <v>244161</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1646987009488682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1443337936908492</v>
+        <v>0.1434750335685607</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1872924321008236</v>
+        <v>0.188684948662758</v>
       </c>
     </row>
     <row r="23">
@@ -5786,19 +5786,19 @@
         <v>120057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101002</v>
+        <v>99741</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141114</v>
+        <v>141981</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.185833585979035</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1563380449705856</v>
+        <v>0.1543857714296478</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.218426869143908</v>
+        <v>0.2197678984531553</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>161</v>
@@ -5807,19 +5807,19 @@
         <v>173311</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151547</v>
+        <v>150750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>196257</v>
+        <v>198962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2674694295142037</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2338807347332743</v>
+        <v>0.2326509328747312</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3028827055922541</v>
+        <v>0.3070568359764599</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>266</v>
@@ -5828,19 +5828,19 @@
         <v>293368</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>263938</v>
+        <v>264037</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>324626</v>
+        <v>323868</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2267119620920083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2039684654571688</v>
+        <v>0.2040454670992166</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2508675058229592</v>
+        <v>0.2502817220329567</v>
       </c>
     </row>
     <row r="24">
@@ -5857,19 +5857,19 @@
         <v>108650</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89334</v>
+        <v>87983</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>129189</v>
+        <v>128440</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1681765314346273</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1382768807302149</v>
+        <v>0.1361857457575415</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1999683970078041</v>
+        <v>0.1988083154888236</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -5878,19 +5878,19 @@
         <v>121305</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>102427</v>
+        <v>99117</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142172</v>
+        <v>143942</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1872095007451653</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1580745507581728</v>
+        <v>0.1529666040816433</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2194124237176243</v>
+        <v>0.2221440792798434</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>214</v>
@@ -5899,19 +5899,19 @@
         <v>229955</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>203905</v>
+        <v>203514</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>260366</v>
+        <v>262152</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.177707110703863</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1575760609439947</v>
+        <v>0.1572731515706305</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2012081256695775</v>
+        <v>0.2025886927070666</v>
       </c>
     </row>
     <row r="25">
@@ -5928,19 +5928,19 @@
         <v>68660</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55310</v>
+        <v>53796</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86220</v>
+        <v>87288</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1062771983047399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08561355183220747</v>
+        <v>0.08326989653399615</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1334571361798982</v>
+        <v>0.135111324275814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -5949,19 +5949,19 @@
         <v>63473</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50183</v>
+        <v>50589</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80480</v>
+        <v>79908</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09795751056866885</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07744642489250372</v>
+        <v>0.07807295608247387</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1242046283977211</v>
+        <v>0.1233218095773254</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -5970,19 +5970,19 @@
         <v>132133</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>110024</v>
+        <v>112105</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>153611</v>
+        <v>158080</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1021111934018679</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08502579536672909</v>
+        <v>0.08663344785822591</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1187092028012238</v>
+        <v>0.1221624508221572</v>
       </c>
     </row>
     <row r="26">
@@ -5999,19 +5999,19 @@
         <v>283199</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>257937</v>
+        <v>256928</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>310215</v>
+        <v>309858</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4383564133005767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3992535604175056</v>
+        <v>0.3976914068792446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4801732273892145</v>
+        <v>0.4796201051737501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>129</v>
@@ -6020,19 +6020,19 @@
         <v>142235</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>122222</v>
+        <v>122025</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>165206</v>
+        <v>165821</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.219509780371606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1886249218595852</v>
+        <v>0.1883203624301636</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2549606771056294</v>
+        <v>0.2559104081649736</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>383</v>
@@ -6041,19 +6041,19 @@
         <v>425434</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>392151</v>
+        <v>390114</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>460313</v>
+        <v>462534</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3287710328533926</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3030504276226021</v>
+        <v>0.3014760675334521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3557255520291067</v>
+        <v>0.3574418140178439</v>
       </c>
     </row>
     <row r="27">
@@ -6145,19 +6145,19 @@
         <v>31914</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21745</v>
+        <v>21615</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45301</v>
+        <v>45083</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06708082221148567</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0457053300391335</v>
+        <v>0.04543179463736322</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09521875398614482</v>
+        <v>0.09476042844747974</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>96</v>
@@ -6166,19 +6166,19 @@
         <v>113969</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93972</v>
+        <v>93681</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>135058</v>
+        <v>134354</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2304112623660328</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1899833759857081</v>
+        <v>0.1893949249528673</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2730475558381698</v>
+        <v>0.2716255543539906</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>124</v>
@@ -6187,19 +6187,19 @@
         <v>145883</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>123019</v>
+        <v>123320</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>170083</v>
+        <v>172781</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1503341449058824</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1267725551149472</v>
+        <v>0.1270829163661961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1752722224314813</v>
+        <v>0.1780529829303822</v>
       </c>
     </row>
     <row r="29">
@@ -6216,19 +6216,19 @@
         <v>73349</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>56949</v>
+        <v>57992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90191</v>
+        <v>90176</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1541719540136106</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1197002009714729</v>
+        <v>0.1218924156470424</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1895729816405665</v>
+        <v>0.1895395248293696</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>107</v>
@@ -6237,19 +6237,19 @@
         <v>124935</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>105080</v>
+        <v>105886</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>144677</v>
+        <v>145093</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2525823158373407</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2124418536023819</v>
+        <v>0.2140713390941236</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2924951151863965</v>
+        <v>0.2933352707867768</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>172</v>
@@ -6258,19 +6258,19 @@
         <v>198284</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>173394</v>
+        <v>173441</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>225469</v>
+        <v>224654</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2043340034247977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1786847611681643</v>
+        <v>0.1787327065086668</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2323484957159824</v>
+        <v>0.2315086240568703</v>
       </c>
     </row>
     <row r="30">
@@ -6287,19 +6287,19 @@
         <v>71939</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55728</v>
+        <v>56498</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>88181</v>
+        <v>89173</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1512077332308938</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1171337938082475</v>
+        <v>0.1187518751847666</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1853481639787023</v>
+        <v>0.1874314035359831</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>73</v>
@@ -6308,19 +6308,19 @@
         <v>82505</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65987</v>
+        <v>66386</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99810</v>
+        <v>100327</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1668016282149428</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1334059914488341</v>
+        <v>0.1342123741371292</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2017861644036822</v>
+        <v>0.2028322473792195</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>136</v>
@@ -6329,19 +6329,19 @@
         <v>154444</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>134838</v>
+        <v>131697</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>181749</v>
+        <v>179832</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1591563040541962</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1389525268846687</v>
+        <v>0.1357151432811676</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.187294732045421</v>
+        <v>0.1853191380167324</v>
       </c>
     </row>
     <row r="31">
@@ -6358,19 +6358,19 @@
         <v>58967</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>45695</v>
+        <v>44982</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>75635</v>
+        <v>75619</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1239429093970411</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09604512025044111</v>
+        <v>0.09454656933199174</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1589759151412461</v>
+        <v>0.1589441799252935</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>32</v>
@@ -6379,19 +6379,19 @@
         <v>34609</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24682</v>
+        <v>24500</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46515</v>
+        <v>47425</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06996835088439496</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04989975726844054</v>
+        <v>0.04953225564788964</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09403896518934632</v>
+        <v>0.0958799215013612</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>84</v>
@@ -6400,19 +6400,19 @@
         <v>93576</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>75548</v>
+        <v>77837</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>114057</v>
+        <v>113658</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09643082204278544</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07785304258070469</v>
+        <v>0.08021190053575343</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1175374511504612</v>
+        <v>0.1171258032627357</v>
       </c>
     </row>
     <row r="32">
@@ -6429,19 +6429,19 @@
         <v>239592</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>216920</v>
+        <v>217764</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>262747</v>
+        <v>261424</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5035965811469688</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4559442552979891</v>
+        <v>0.4577162484537808</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5522657506369308</v>
+        <v>0.5494864756373976</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>123</v>
@@ -6450,19 +6450,19 @@
         <v>138614</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>117647</v>
+        <v>117429</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>160637</v>
+        <v>160744</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2802364426972887</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.237847136266426</v>
+        <v>0.2374063705881186</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3247603081123644</v>
+        <v>0.3249767956610719</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>337</v>
@@ -6471,19 +6471,19 @@
         <v>378205</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>347396</v>
+        <v>349832</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>411204</v>
+        <v>415201</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3897447255723382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3579957604302985</v>
+        <v>0.3605057393547495</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4237504524135539</v>
+        <v>0.4278696328123015</v>
       </c>
     </row>
     <row r="33">
@@ -6575,19 +6575,19 @@
         <v>28185</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19462</v>
+        <v>19493</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40408</v>
+        <v>40129</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08457514971384761</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05839849439542082</v>
+        <v>0.05849185602713482</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1212539615584798</v>
+        <v>0.1204159063490927</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>66</v>
@@ -6596,19 +6596,19 @@
         <v>72507</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>56865</v>
+        <v>57383</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>86903</v>
+        <v>88854</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1924547335864751</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1509350752095651</v>
+        <v>0.1523105283849331</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.230664368128579</v>
+        <v>0.2358429716855867</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>94</v>
@@ -6617,19 +6617,19 @@
         <v>100692</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>83576</v>
+        <v>82381</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>121232</v>
+        <v>120586</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1418193434457123</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1177114381477552</v>
+        <v>0.1160284488893941</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1707482735281681</v>
+        <v>0.1698389416214378</v>
       </c>
     </row>
     <row r="35">
@@ -6646,19 +6646,19 @@
         <v>43892</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31374</v>
+        <v>32337</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>59198</v>
+        <v>56410</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1317077704017824</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09414387354615784</v>
+        <v>0.09703294910646063</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1776366338202579</v>
+        <v>0.1692710325578684</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>75</v>
@@ -6667,19 +6667,19 @@
         <v>81775</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>65513</v>
+        <v>65914</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>98834</v>
+        <v>100644</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2170536180090798</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1738888254866522</v>
+        <v>0.1749549495831457</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2623322086654784</v>
+        <v>0.2671385626106231</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>117</v>
@@ -6688,19 +6688,19 @@
         <v>125667</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107040</v>
+        <v>105718</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>146648</v>
+        <v>148270</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.176994877185682</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1507601584982421</v>
+        <v>0.1488975628913333</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.206545538584377</v>
+        <v>0.2088300986841062</v>
       </c>
     </row>
     <row r="36">
@@ -6717,19 +6717,19 @@
         <v>32166</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22416</v>
+        <v>23102</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>45014</v>
+        <v>44534</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09652147548697518</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06726474687297333</v>
+        <v>0.06932271237948909</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1350755021372181</v>
+        <v>0.1336334358079713</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -6738,19 +6738,19 @@
         <v>55710</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>42589</v>
+        <v>43994</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>69761</v>
+        <v>70965</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1478710243262643</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1130427697973199</v>
+        <v>0.1167717806247978</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1851653654860201</v>
+        <v>0.1883620994296903</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>84</v>
@@ -6759,19 +6759,19 @@
         <v>87877</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>71673</v>
+        <v>71824</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>108735</v>
+        <v>109564</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1237691104544099</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1009466567392051</v>
+        <v>0.101159992825666</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1531476405410326</v>
+        <v>0.1543151387705521</v>
       </c>
     </row>
     <row r="37">
@@ -6788,19 +6788,19 @@
         <v>33425</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23316</v>
+        <v>23808</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>45094</v>
+        <v>45553</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1002989264896605</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06996429462791456</v>
+        <v>0.07144129132313287</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1353153902279563</v>
+        <v>0.1366911351150665</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>28</v>
@@ -6809,19 +6809,19 @@
         <v>29566</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19967</v>
+        <v>20501</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42237</v>
+        <v>42800</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07847684003983621</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05299904921860766</v>
+        <v>0.05441635280897371</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1121083474554033</v>
+        <v>0.1136024078189552</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>61</v>
@@ -6830,19 +6830,19 @@
         <v>62991</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>48602</v>
+        <v>48740</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>79556</v>
+        <v>80588</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08871946261406616</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06845345271281357</v>
+        <v>0.06864720431308616</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1120493870768176</v>
+        <v>0.1135038192547675</v>
       </c>
     </row>
     <row r="38">
@@ -6859,19 +6859,19 @@
         <v>195586</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>176900</v>
+        <v>175758</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>214047</v>
+        <v>212800</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5868966779077343</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5308265560343061</v>
+        <v>0.5274002418691006</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.642294942468003</v>
+        <v>0.6385522777234446</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>132</v>
@@ -6880,19 +6880,19 @@
         <v>137191</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>117562</v>
+        <v>119579</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>155118</v>
+        <v>156118</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3641437840383446</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3120431557258228</v>
+        <v>0.3173962092525907</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4117276239192942</v>
+        <v>0.4143815244671243</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>321</v>
@@ -6901,19 +6901,19 @@
         <v>332777</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>309311</v>
+        <v>306020</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>358889</v>
+        <v>360868</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4686972063001296</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4356467637155556</v>
+        <v>0.4310110988295612</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5054743973661129</v>
+        <v>0.5082620610129072</v>
       </c>
     </row>
     <row r="39">
@@ -7005,19 +7005,19 @@
         <v>10436</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5798</v>
+        <v>5735</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17298</v>
+        <v>17966</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04087504519562714</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0227119475259625</v>
+        <v>0.02246183974997796</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06775282072421714</v>
+        <v>0.0703717402877867</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>35</v>
@@ -7026,19 +7026,19 @@
         <v>48313</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33960</v>
+        <v>35262</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>64948</v>
+        <v>67330</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1221677612605347</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08587451706677976</v>
+        <v>0.08916756200955436</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.164232126962493</v>
+        <v>0.1702569421360963</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>47</v>
@@ -7047,19 +7047,19 @@
         <v>58748</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>42778</v>
+        <v>44691</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>76143</v>
+        <v>76898</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09027548555910098</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06573426058758083</v>
+        <v>0.06867422858146872</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1170050901926538</v>
+        <v>0.1181652358435588</v>
       </c>
     </row>
     <row r="41">
@@ -7076,19 +7076,19 @@
         <v>30382</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>21985</v>
+        <v>21661</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>40250</v>
+        <v>40228</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1190031503778646</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08611301250765967</v>
+        <v>0.08484235472750834</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1576533608352103</v>
+        <v>0.1575685997422838</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>39</v>
@@ -7097,19 +7097,19 @@
         <v>52840</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>37959</v>
+        <v>38153</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>69456</v>
+        <v>70205</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.133616137680366</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09598675010442406</v>
+        <v>0.0964757187164154</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1756321340871828</v>
+        <v>0.1775260899139229</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>75</v>
@@ -7118,19 +7118,19 @@
         <v>83222</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>67033</v>
+        <v>66001</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>105578</v>
+        <v>102056</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1278832572646001</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1030058577275215</v>
+        <v>0.1014207432630304</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1622353207544355</v>
+        <v>0.1568246149638765</v>
       </c>
     </row>
     <row r="42">
@@ -7147,19 +7147,19 @@
         <v>21301</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14039</v>
+        <v>14180</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30080</v>
+        <v>31339</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0834324884671661</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05499061758524665</v>
+        <v>0.05554120387041091</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1178189755362496</v>
+        <v>0.1227495913742</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>38</v>
@@ -7168,19 +7168,19 @@
         <v>51371</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>38615</v>
+        <v>38491</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>68747</v>
+        <v>69240</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.129902132883149</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09764537189278272</v>
+        <v>0.09733256445473856</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1738389851143144</v>
+        <v>0.1750853485310301</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>63</v>
@@ -7189,19 +7189,19 @@
         <v>72672</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>55807</v>
+        <v>58103</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>90004</v>
+        <v>91047</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1116714378934674</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08575571297511142</v>
+        <v>0.08928394174346421</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1383035775299071</v>
+        <v>0.1399071191575822</v>
       </c>
     </row>
     <row r="43">
@@ -7218,19 +7218,19 @@
         <v>16817</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10543</v>
+        <v>10582</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>24461</v>
+        <v>25344</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.06587165116061797</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04129575403993277</v>
+        <v>0.04144838642366815</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09580964862052872</v>
+        <v>0.09927055897678987</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>23</v>
@@ -7239,19 +7239,19 @@
         <v>30446</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20007</v>
+        <v>19768</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>44641</v>
+        <v>44518</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07698933206579894</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05059021290958749</v>
+        <v>0.04998652599245693</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1128828139997895</v>
+        <v>0.1125725431966882</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>43</v>
@@ -7260,19 +7260,19 @@
         <v>47264</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>33063</v>
+        <v>34456</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>61769</v>
+        <v>65289</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07262770950289313</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0508056668074886</v>
+        <v>0.05294650802968971</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09491763667087695</v>
+        <v>0.1003256518678497</v>
       </c>
     </row>
     <row r="44">
@@ -7289,19 +7289,19 @@
         <v>176370</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>163044</v>
+        <v>161807</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>187882</v>
+        <v>188820</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6908176647987242</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6386206577876168</v>
+        <v>0.6337766433343507</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.735910749010225</v>
+        <v>0.7395823290809317</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>163</v>
@@ -7310,19 +7310,19 @@
         <v>212492</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>190453</v>
+        <v>187423</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>235646</v>
+        <v>235969</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5373246361101514</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4815950883105938</v>
+        <v>0.4739340858906103</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5958744877974963</v>
+        <v>0.5966911839663385</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>370</v>
@@ -7331,19 +7331,19 @@
         <v>388861</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>361138</v>
+        <v>362488</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>416002</v>
+        <v>416648</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5975421097799384</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5549407592905824</v>
+        <v>0.5570154829917874</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6392473017767136</v>
+        <v>0.6402408160012394</v>
       </c>
     </row>
     <row r="45">
@@ -7435,19 +7435,19 @@
         <v>334396</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>296585</v>
+        <v>299746</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>367149</v>
+        <v>370432</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09904557853497201</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08784633953151211</v>
+        <v>0.08878238366597209</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1087467964540763</v>
+        <v>0.1097193090434351</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>688</v>
@@ -7456,19 +7456,19 @@
         <v>738101</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>691630</v>
+        <v>692002</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>786753</v>
+        <v>795158</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2089733380029731</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1958161168198023</v>
+        <v>0.1959216481455384</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2227476698027166</v>
+        <v>0.2251273723413351</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>999</v>
@@ -7477,19 +7477,19 @@
         <v>1072497</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1013905</v>
+        <v>1012392</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1132812</v>
+        <v>1134475</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1552494708132306</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.146767958219624</v>
+        <v>0.1465489834962923</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1639803449584548</v>
+        <v>0.1642210587014718</v>
       </c>
     </row>
     <row r="47">
@@ -7506,19 +7506,19 @@
         <v>647420</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>606804</v>
+        <v>602399</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>695809</v>
+        <v>697119</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1917608616961822</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1797308866234393</v>
+        <v>0.1784261226534045</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.206093459372478</v>
+        <v>0.2064813390471006</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>873</v>
@@ -7527,19 +7527,19 @@
         <v>919917</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>872067</v>
+        <v>867616</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>977245</v>
+        <v>970142</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2604495425868162</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2469021336246348</v>
+        <v>0.2456417512900132</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.276680225318726</v>
+        <v>0.2746693784157532</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1486</v>
@@ -7548,19 +7548,19 @@
         <v>1567337</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1502795</v>
+        <v>1498204</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1634035</v>
+        <v>1642475</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2268800275938248</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2175372926212024</v>
+        <v>0.2168727213126919</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2365349284784866</v>
+        <v>0.2377566925505133</v>
       </c>
     </row>
     <row r="48">
@@ -7577,19 +7577,19 @@
         <v>534729</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>492504</v>
+        <v>489184</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>577085</v>
+        <v>576688</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1583827606241286</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1458760262296685</v>
+        <v>0.1448925553448118</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1709281458722485</v>
+        <v>0.1708106195837951</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>603</v>
@@ -7598,19 +7598,19 @@
         <v>625172</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>581583</v>
+        <v>579822</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>673834</v>
+        <v>668047</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1770004007688426</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1646593216475297</v>
+        <v>0.1641609291071415</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1907778288735451</v>
+        <v>0.1891392147518803</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1111</v>
@@ -7619,19 +7619,19 @@
         <v>1159901</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1097753</v>
+        <v>1099878</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1221281</v>
+        <v>1226643</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1679015923208073</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.158905425093979</v>
+        <v>0.1592129320667764</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1767867050572521</v>
+        <v>0.1775628513321527</v>
       </c>
     </row>
     <row r="49">
@@ -7648,19 +7648,19 @@
         <v>400156</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>360129</v>
+        <v>364544</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>436072</v>
+        <v>436617</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1185231075283297</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1066675035253899</v>
+        <v>0.1079751438176259</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1291613148837542</v>
+        <v>0.1293227098887386</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>278</v>
@@ -7669,19 +7669,19 @@
         <v>286350</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>254647</v>
+        <v>256768</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>318511</v>
+        <v>320321</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08107224597788057</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0720964170045667</v>
+        <v>0.07269681688929226</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09017781591779479</v>
+        <v>0.09069017189224414</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>656</v>
@@ -7690,19 +7690,19 @@
         <v>686506</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>637937</v>
+        <v>637348</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>741101</v>
+        <v>740250</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.09937522169406843</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09234470322594805</v>
+        <v>0.09225939169911057</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1072781181984165</v>
+        <v>0.1071549675830681</v>
       </c>
     </row>
     <row r="50">
@@ -7719,19 +7719,19 @@
         <v>1459482</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1404317</v>
+        <v>1399535</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1523796</v>
+        <v>1518451</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4322876916163875</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4159482110902418</v>
+        <v>0.4145315882946306</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4513368555338407</v>
+        <v>0.4497537789818888</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>886</v>
@@ -7740,19 +7740,19 @@
         <v>962496</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>907016</v>
+        <v>912511</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1018035</v>
+        <v>1020151</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2725044726634875</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2567968603870852</v>
+        <v>0.2583526256369406</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2882288134149438</v>
+        <v>0.2888280441125636</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2289</v>
@@ -7761,19 +7761,19 @@
         <v>2421978</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2343036</v>
+        <v>2343768</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2502607</v>
+        <v>2504560</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3505936875780689</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3391665049728138</v>
+        <v>0.3392724145956196</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3622652734050848</v>
+        <v>0.3625478950682146</v>
       </c>
     </row>
     <row r="51">
